--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang5/02.TraBH/TBH_NgocHoan_050525.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang5/02.TraBH/TBH_NgocHoan_050525.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang5\02.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8228C72-2CBE-4368-9C42-A35F25042D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52E2022-D9F8-46F7-9AE2-9A3309C2F340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$28</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -135,6 +135,33 @@
   </si>
   <si>
     <t>ID mới: 007785070605905</t>
+  </si>
+  <si>
+    <t>Hết hạn DV</t>
+  </si>
+  <si>
+    <t>Không nhận sim</t>
+  </si>
+  <si>
+    <t>005185070148690</t>
+  </si>
+  <si>
+    <t>005185070134989</t>
+  </si>
+  <si>
+    <t>005185070143394</t>
+  </si>
+  <si>
+    <t>006080056249571</t>
+  </si>
+  <si>
+    <t>Lỗi main Module sim 4G</t>
+  </si>
+  <si>
+    <t>Xử lý lại main Module sim</t>
+  </si>
+  <si>
+    <t>Xử lý lại kết nối Module sim với khay sim</t>
   </si>
 </sst>
 </file>
@@ -144,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@*."/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +274,13 @@
     <font>
       <u/>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -496,6 +530,42 @@
     <xf numFmtId="1" fontId="13" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -517,44 +587,8 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -919,10 +953,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -942,69 +976,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="44" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="47" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="50" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
@@ -1018,12 +1052,12 @@
       <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="26"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -1031,12 +1065,12 @@
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="26"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -1044,12 +1078,12 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="26"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -1057,12 +1091,12 @@
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="26"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -1110,7 +1144,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" s="54" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -1132,9 +1166,9 @@
         <v>30</v>
       </c>
       <c r="I13" s="31"/>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:10" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>2</v>
       </c>
@@ -1158,9 +1192,9 @@
         <v>32</v>
       </c>
       <c r="I14" s="31"/>
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" spans="1:10" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>3</v>
       </c>
@@ -1182,145 +1216,243 @@
         <v>34</v>
       </c>
       <c r="I15" s="31"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>4</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="54"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>5</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>6</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>7</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="37" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="40" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="39" t="s">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-    </row>
-    <row r="65" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+    </row>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="30" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+    </row>
+    <row r="69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
-  <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
+  <pageMargins left="0.5" right="1" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
